--- a/_templates/Operational_Logistics_Board/Jobs_Positions_en.xlsx
+++ b/_templates/Operational_Logistics_Board/Jobs_Positions_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Operational_Logistics_Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3E0414-B32E-0C42-87D5-0060D44DAA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6882FF-566B-AA4C-8DB0-AF85161EE825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51140" yWindow="-5640" windowWidth="36780" windowHeight="28080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40620" yWindow="-4960" windowWidth="36780" windowHeight="28080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>job</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Pasta - Rotini, Colour, Dry</t>
-  </si>
-  <si>
-    <t>Parsnip</t>
   </si>
   <si>
     <t>Cheese - Provolone</t>
@@ -587,7 +584,7 @@
   <dimension ref="A1:F869"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -922,7 +919,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>6789134</v>
+        <v>5684319</v>
       </c>
       <c r="B17" s="2">
         <v>100</v>
@@ -942,7 +939,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>6789134</v>
+        <v>5684319</v>
       </c>
       <c r="B18" s="2">
         <v>200</v>
@@ -962,7 +959,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>6789134</v>
+        <v>5684319</v>
       </c>
       <c r="B19" s="2">
         <v>200</v>
@@ -982,7 +979,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>6789134</v>
+        <v>5684319</v>
       </c>
       <c r="B20" s="2">
         <v>200</v>
@@ -997,12 +994,12 @@
         <v>600</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>6789134</v>
+        <v>5684319</v>
       </c>
       <c r="B21" s="2">
         <v>300</v>
@@ -1017,12 +1014,12 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>6789134</v>
+        <v>5684319</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -1037,12 +1034,12 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>6789134</v>
+        <v>5684319</v>
       </c>
       <c r="B23" s="2">
         <v>300</v>
@@ -1057,12 +1054,12 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>6789134</v>
+        <v>5684319</v>
       </c>
       <c r="B24" s="2">
         <v>300</v>
@@ -1077,12 +1074,12 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B25" s="2">
         <v>100</v>
@@ -1097,12 +1094,12 @@
         <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B26" s="2">
         <v>100</v>
@@ -1117,12 +1114,12 @@
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B27" s="2">
         <v>100</v>
@@ -1137,12 +1134,12 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B28" s="2">
         <v>100</v>
@@ -1157,12 +1154,12 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B29" s="2">
         <v>100</v>
@@ -1177,12 +1174,12 @@
         <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B30" s="2">
         <v>100</v>
@@ -1197,12 +1194,12 @@
         <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B31" s="2">
         <v>100</v>
@@ -1217,12 +1214,12 @@
         <v>120</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B32" s="2">
         <v>200</v>
@@ -1237,12 +1234,12 @@
         <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B33" s="2">
         <v>200</v>
@@ -1257,12 +1254,12 @@
         <v>160</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B34" s="2">
         <v>200</v>
@@ -1277,12 +1274,12 @@
         <v>3000</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B35" s="2">
         <v>200</v>
@@ -1297,12 +1294,12 @@
         <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B36" s="2">
         <v>300</v>
@@ -1317,12 +1314,12 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B37" s="2">
         <v>300</v>
@@ -1337,12 +1334,12 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B38" s="2">
         <v>300</v>
@@ -1357,12 +1354,12 @@
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>9330046</v>
+        <v>5684327</v>
       </c>
       <c r="B39" s="2">
         <v>300</v>
@@ -1377,12 +1374,12 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B40" s="2">
         <v>100</v>
@@ -1395,12 +1392,12 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B41" s="2">
         <v>200</v>
@@ -1413,12 +1410,12 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B42" s="2">
         <v>200</v>
@@ -1431,12 +1428,12 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B43" s="2">
         <v>200</v>
@@ -1449,12 +1446,12 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B44" s="2">
         <v>300</v>
@@ -1467,12 +1464,12 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B45" s="2">
         <v>300</v>
@@ -1485,12 +1482,12 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B46" s="2">
         <v>300</v>
@@ -1503,12 +1500,12 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B47" s="2">
         <v>300</v>
@@ -1521,12 +1518,12 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B48" s="2">
         <v>300</v>
@@ -1539,12 +1536,12 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B49" s="2">
         <v>300</v>
@@ -1557,12 +1554,12 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B50" s="2">
         <v>300</v>
@@ -1575,12 +1572,12 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>6794654</v>
+        <v>5684714</v>
       </c>
       <c r="B51" s="2">
         <v>300</v>
@@ -1593,12 +1590,12 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>6132467</v>
+        <v>5684441</v>
       </c>
       <c r="B52" s="2">
         <v>100</v>
@@ -1611,12 +1608,12 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>6132467</v>
+        <v>5684441</v>
       </c>
       <c r="B53" s="2">
         <v>100</v>
@@ -1629,12 +1626,12 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>6132467</v>
+        <v>5684441</v>
       </c>
       <c r="B54" s="2">
         <v>100</v>
@@ -1647,12 +1644,12 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>6132467</v>
+        <v>5684441</v>
       </c>
       <c r="B55" s="2">
         <v>100</v>
@@ -1665,12 +1662,12 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>6132467</v>
+        <v>5684441</v>
       </c>
       <c r="B56">
         <v>100</v>
@@ -1683,12 +1680,12 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>6132467</v>
+        <v>5684441</v>
       </c>
       <c r="B57">
         <v>200</v>
@@ -1701,12 +1698,12 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>6132467</v>
+        <v>5684441</v>
       </c>
       <c r="B58">
         <v>200</v>
@@ -1719,12 +1716,12 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>6132467</v>
+        <v>5684441</v>
       </c>
       <c r="B59">
         <v>200</v>
@@ -1737,12 +1734,12 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
-        <v>6132467</v>
+        <v>5684441</v>
       </c>
       <c r="B60">
         <v>300</v>
@@ -1755,12 +1752,12 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
-        <v>6132467</v>
+        <v>5684441</v>
       </c>
       <c r="B61">
         <v>300</v>
@@ -1773,7 +1770,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">

--- a/_templates/Operational_Logistics_Board/Jobs_Positions_en.xlsx
+++ b/_templates/Operational_Logistics_Board/Jobs_Positions_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Operational_Logistics_Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6882FF-566B-AA4C-8DB0-AF85161EE825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F7665-7327-334B-BF64-A5AF7316B841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40620" yWindow="-4960" windowWidth="36780" windowHeight="28080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>part_title</t>
   </si>
   <si>
-    <t>Plate - Foam, Bread And Butter</t>
-  </si>
-  <si>
     <t>Mayonnaise - Individual Pkg</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>Scallops - 10/20</t>
+  </si>
+  <si>
+    <t>Plates</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <dimension ref="A1:F869"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -634,7 +634,7 @@
         <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -654,7 +654,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -674,7 +674,7 @@
         <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -694,7 +694,7 @@
         <v>1200</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -714,7 +714,7 @@
         <v>1400</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -734,7 +734,7 @@
         <v>1600</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -754,7 +754,7 @@
         <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -794,7 +794,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -814,7 +814,7 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -834,7 +834,7 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -854,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -874,7 +874,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -894,7 +894,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -914,7 +914,7 @@
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -934,7 +934,7 @@
         <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -954,7 +954,7 @@
         <v>1600</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -974,7 +974,7 @@
         <v>800</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -994,7 +994,7 @@
         <v>600</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1014,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -1054,7 +1054,7 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -1074,7 +1074,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1094,7 +1094,7 @@
         <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -1114,7 +1114,7 @@
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1134,7 +1134,7 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1174,7 +1174,7 @@
         <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1194,7 +1194,7 @@
         <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1214,7 +1214,7 @@
         <v>120</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1234,7 +1234,7 @@
         <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1254,7 +1254,7 @@
         <v>160</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1274,7 +1274,7 @@
         <v>3000</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1294,7 +1294,7 @@
         <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1334,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1354,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
